--- a/data/metadata/Informe-01-010059-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010059-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>ccaa-nombre</t>
   </si>
@@ -73,7 +73,7 @@
     <t>iaest-measure:explotaciones-con-tierras-cuya-superficie-es-totalmente-de-su-propiedad</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:provincia</t>
   </si>
   <si>
     <t>iaest-measure:explotaciones-sin-tierras</t>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
   </si>
   <si>
     <t>mapping-ccaa-nombre.xlsx</t>
@@ -295,7 +292,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>31</v>
@@ -345,7 +342,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
@@ -383,10 +380,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010059-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010059-A-TC-TM-TP.xlsx
@@ -11,111 +11,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>nombre-del-municipio</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>explotaciones-con-tierras-cuya-superficie-es-totalmente-de-su-propiedad</t>
-  </si>
-  <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>explotaciones-sin-tierras</t>
-  </si>
-  <si>
-    <t>explotaciones-con-tierras-con-25-y-50-de-su-propiedad</t>
-  </si>
-  <si>
-    <t>explotaciones-con-tierras-con-75-y--100-de-su-propiedad</t>
-  </si>
-  <si>
-    <t>numero-total-de-explotaciones</t>
-  </si>
-  <si>
-    <t>codigo-de-la-provincia</t>
-  </si>
-  <si>
-    <t>explotaciones-con-tierras-con-50-y--75-de-su-propiedad</t>
-  </si>
-  <si>
-    <t>comarca</t>
-  </si>
-  <si>
-    <t>explotaciones-con-tierras</t>
-  </si>
-  <si>
-    <t>codigo-del-municipio</t>
-  </si>
-  <si>
-    <t>codigo-de-la-comarca</t>
-  </si>
-  <si>
-    <t>explotaciones-con-tierras-con--25-de-su-propiedad</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+  <si>
+    <t>Código de la provincia</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Explotaciones con tierras con &lt; 25% de su propiedad</t>
+  </si>
+  <si>
+    <t>Número total de explotaciones</t>
+  </si>
+  <si>
+    <t>Comarca</t>
+  </si>
+  <si>
+    <t>Explotaciones sin tierras</t>
+  </si>
+  <si>
+    <t>Explotaciones con tierras con &gt;=75% y  &lt;100% de su propiedad</t>
+  </si>
+  <si>
+    <t>Nombre del municipio</t>
+  </si>
+  <si>
+    <t>Explotaciones con tierras con &gt;=50% y  &lt;75% de su propiedad</t>
+  </si>
+  <si>
+    <t>Código del municipio</t>
+  </si>
+  <si>
+    <t>Explotaciones con tierras cuya superficie es totalmente de su propiedad</t>
+  </si>
+  <si>
+    <t>Código de la comarca</t>
+  </si>
+  <si>
+    <t>Explotaciones con tierras</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Explotaciones con tierras con &gt;=25% y &lt;50% de su propiedad</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:explotaciones-con-tierras-con--25-de-su-propiedad</t>
+  </si>
+  <si>
+    <t>iaest-measure:numero-total-de-explotaciones</t>
+  </si>
+  <si>
+    <t>iaest-measure:comarca</t>
+  </si>
+  <si>
+    <t>iaest-measure:explotaciones-sin-tierras</t>
+  </si>
+  <si>
+    <t>iaest-measure:explotaciones-con-tierras-con-75-y--100-de-su-propiedad</t>
   </si>
   <si>
     <t>iaest-measure:nombre-del-municipio</t>
   </si>
   <si>
+    <t>iaest-measure:explotaciones-con-tierras-con-50-y--75-de-su-propiedad</t>
+  </si>
+  <si>
+    <t>iaest-measure:explotaciones-con-tierras-cuya-superficie-es-totalmente-de-su-propiedad</t>
+  </si>
+  <si>
+    <t>iaest-measure:explotaciones-con-tierras</t>
+  </si>
+  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:explotaciones-con-tierras-cuya-superficie-es-totalmente-de-su-propiedad</t>
+    <t>iaest-measure:explotaciones-con-tierras-con-25-y-50-de-su-propiedad</t>
   </si>
   <si>
     <t>iaest-measure:provincia</t>
   </si>
   <si>
-    <t>iaest-measure:explotaciones-sin-tierras</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-con-tierras-con-25-y-50-de-su-propiedad</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-con-tierras-con-75-y--100-de-su-propiedad</t>
-  </si>
-  <si>
-    <t>iaest-measure:numero-total-de-explotaciones</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-con-tierras-con-50-y--75-de-su-propiedad</t>
-  </si>
-  <si>
-    <t>iaest-measure:comarca</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-con-tierras</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-con-tierras-con--25-de-su-propiedad</t>
-  </si>
-  <si>
     <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>URI-Comunidad</t>
   </si>
   <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -257,22 +260,22 @@
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>29</v>
@@ -280,49 +283,49 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>31</v>
@@ -330,19 +333,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
@@ -351,39 +354,36 @@
         <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-010059-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010059-A-TC-TM-TP.xlsx
@@ -67,7 +67,7 @@
     <t>ccaa-nombre</t>
   </si>
   <si>
-    <t>explotaciones-con-tierras-con--25porcentaje-de-su-propiedad</t>
+    <t>explotaciones-con-tierras-con--25-de-su-propiedad</t>
   </si>
   <si>
     <t>numero-total-de-explotaciones</t>
@@ -79,13 +79,13 @@
     <t>explotaciones-sin-tierras</t>
   </si>
   <si>
-    <t>explotaciones-con-tierras-con-75porcentaje-y--100porcentaje-de-su-propiedad</t>
+    <t>explotaciones-con-tierras-con-75-y--100-de-su-propiedad</t>
   </si>
   <si>
     <t>nombre-del-municipio</t>
   </si>
   <si>
-    <t>explotaciones-con-tierras-con-50porcentaje-y--75porcentaje-de-su-propiedad</t>
+    <t>explotaciones-con-tierras-con-50-y--75-de-su-propiedad</t>
   </si>
   <si>
     <t>codigo-del-municipio</t>
@@ -103,7 +103,7 @@
     <t>ano</t>
   </si>
   <si>
-    <t>explotaciones-con-tierras-con-25porcentaje-y-50porcentaje-de-su-propiedad</t>
+    <t>explotaciones-con-tierras-con-25-y-50-de-su-propiedad</t>
   </si>
   <si>
     <t>provincia</t>
@@ -115,7 +115,7 @@
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>iaest-measure:explotaciones-con-tierras-con--25porcentaje-de-su-propiedad</t>
+    <t>iaest-measure:explotaciones-con-tierras-con--25-de-su-propiedad</t>
   </si>
   <si>
     <t>iaest-measure:numero-total-de-explotaciones</t>
@@ -124,10 +124,10 @@
     <t>iaest-measure:explotaciones-sin-tierras</t>
   </si>
   <si>
-    <t>iaest-measure:explotaciones-con-tierras-con-75porcentaje-y--100porcentaje-de-su-propiedad</t>
-  </si>
-  <si>
-    <t>iaest-measure:explotaciones-con-tierras-con-50porcentaje-y--75porcentaje-de-su-propiedad</t>
+    <t>iaest-measure:explotaciones-con-tierras-con-75-y--100-de-su-propiedad</t>
+  </si>
+  <si>
+    <t>iaest-measure:explotaciones-con-tierras-con-50-y--75-de-su-propiedad</t>
   </si>
   <si>
     <t>iaest-measure:explotaciones-con-tierras-cuya-superficie-es-totalmente-de-su-propiedad</t>
@@ -139,7 +139,7 @@
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>iaest-measure:explotaciones-con-tierras-con-25porcentaje-y-50porcentaje-de-su-propiedad</t>
+    <t>iaest-measure:explotaciones-con-tierras-con-25-y-50-de-su-propiedad</t>
   </si>
   <si>
     <t>dim</t>
@@ -187,17 +187,22 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -207,15 +212,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
